--- a/(development)/personal/gdzie co jest.xlsx
+++ b/(development)/personal/gdzie co jest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PRO\IT work\code source all confondu\projecty do nauki\linkedin-skill-assessments-quizzes\(development)\personal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D1EB0C-B1C4-43B8-A8F3-0F58471E0231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1D013C-79DD-4E82-A0AF-A0507FF85C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,15 +25,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>rorebka puma</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>druga szuflada</t>
   </si>
   <si>
     <t>albo torba nike, kieszen zew str</t>
+  </si>
+  <si>
+    <t>torebka puma</t>
+  </si>
+  <si>
+    <t>linijka</t>
+  </si>
+  <si>
+    <t>pierwsza szuflada</t>
   </si>
 </sst>
 </file>
@@ -351,25 +357,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/(development)/personal/gdzie co jest.xlsx
+++ b/(development)/personal/gdzie co jest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PRO\IT work\code source all confondu\projecty do nauki\linkedin-skill-assessments-quizzes\(development)\personal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1D013C-79DD-4E82-A0AF-A0507FF85C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F854B9D-0D87-4C42-B1E5-0FB4CFE84AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="7200" yWindow="1485" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>druga szuflada</t>
   </si>
@@ -40,6 +40,12 @@
   </si>
   <si>
     <t>pierwsza szuflada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">szczypce do sciskania decathlon </t>
+  </si>
+  <si>
+    <t>w pojemniku plastikowym ze sportowymi rzeczami</t>
   </si>
 </sst>
 </file>
@@ -357,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -386,6 +392,14 @@
         <v>4</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/(development)/personal/gdzie co jest.xlsx
+++ b/(development)/personal/gdzie co jest.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PRO\IT work\code source all confondu\projecty do nauki\linkedin-skill-assessments-quizzes\(development)\personal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IT work\linkedin-skill-assessments-quizzes\(development)\personal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F854B9D-0D87-4C42-B1E5-0FB4CFE84AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328DFAD6-D9E7-456D-A862-2284849977E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="7200" yWindow="1485" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>druga szuflada</t>
   </si>
@@ -46,6 +46,30 @@
   </si>
   <si>
     <t>w pojemniku plastikowym ze sportowymi rzeczami</t>
+  </si>
+  <si>
+    <t>kosmetyczka adidas</t>
+  </si>
+  <si>
+    <t>w hermetycznej niebieskiej torbie na drazku w szafie razem z innymi rorbopodobnymi</t>
+  </si>
+  <si>
+    <t>w czarnej skrzynce plastikowej na samej gorze w szafie po srodku</t>
+  </si>
+  <si>
+    <t>do motoru kombinezon przeciwdeszczowy</t>
+  </si>
+  <si>
+    <t>szalik niebieski zary</t>
+  </si>
+  <si>
+    <t>w malej plastikowej skrzynce po srodku w srodkowej szafie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tasma szara </t>
+  </si>
+  <si>
+    <t>w skrzynce z narzedziami</t>
   </si>
 </sst>
 </file>
@@ -363,13 +387,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -400,6 +427,38 @@
         <v>6</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
